--- a/sofaplayer/Serie_A/Lazio_stats.xlsx
+++ b/sofaplayer/Serie_A/Lazio_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>960080</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4571428571429</v>
+        <v>6.46</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.0351</v>
+        <v>2.1021</v>
       </c>
       <c r="L2" t="n">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.15881937</v>
+        <v>0.17512707</v>
       </c>
       <c r="AB2" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AF2" t="n">
-        <v>81.447963800905</v>
+        <v>81.777777777778</v>
       </c>
       <c r="AG2" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH2" t="n">
         <v>82</v>
       </c>
       <c r="AI2" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -1161,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>90.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="BR2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS2" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS2" t="n">
         <v>6</v>
@@ -1353,7 +1353,7 @@
         <v>98</v>
       </c>
       <c r="DG2" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>970928</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6636363636364</v>
+        <v>6.6916666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>429</v>
+        <v>519</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7008</v>
+        <v>0.9222</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1813,34 +1813,34 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.75881994</v>
+        <v>0.85807334</v>
       </c>
       <c r="AB4" t="n">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AF4" t="n">
-        <v>77.18120805369099</v>
+        <v>77.41935483871001</v>
       </c>
       <c r="AG4" t="n">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>1</v>
@@ -1855,16 +1855,16 @@
         <v>27.272727272727</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BA4" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BB4" t="n">
-        <v>49.253731343284</v>
+        <v>51.315789473684</v>
       </c>
       <c r="BC4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BD4" t="n">
-        <v>53.846153846154</v>
+        <v>55.737704918033</v>
       </c>
       <c r="BE4" t="n">
         <v>5</v>
@@ -1909,13 +1909,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG4" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BH4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BJ4" t="n">
         <v>1</v>
@@ -1933,28 +1933,28 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>73.3</v>
+        <v>80.3</v>
       </c>
       <c r="BR4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1963,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CB4" t="n">
         <v>9</v>
       </c>
       <c r="CC4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD4" t="n">
         <v>1</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CS4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT4" t="n">
         <v>11</v>
       </c>
       <c r="CU4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CV4" t="n">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="DA4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DB4" t="n">
         <v>100</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="DG4" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,37 +2103,37 @@
         <v>1101942</v>
       </c>
       <c r="E5" t="n">
-        <v>6.575</v>
+        <v>6.56</v>
       </c>
       <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>154</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4634</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>131</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1245</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01851939</v>
+        <v>0.02260876</v>
       </c>
       <c r="AB5" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,22 +2181,22 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>64.51612903225799</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="n">
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2247,25 +2247,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>61.538461538462</v>
+        <v>62.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD5" t="n">
-        <v>75</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF5" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="BG5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2295,40 +2295,40 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>26.3</v>
+        <v>32.8</v>
       </c>
       <c r="BR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>4</v>
       </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>11</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>1</v>
-      </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" t="n">
         <v>4</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV5" t="n">
         <v>4</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="DG5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1017649</v>
       </c>
       <c r="E6" t="n">
-        <v>6.9176470588235</v>
+        <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>2.6044</v>
       </c>
       <c r="L6" t="n">
-        <v>375</v>
+        <v>378.66666666667</v>
       </c>
       <c r="M6" t="n">
         <v>27</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.27888455</v>
+        <v>1.27895868</v>
       </c>
       <c r="AB6" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AC6" t="n">
         <v>2</v>
@@ -2537,19 +2537,19 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.694444444444</v>
+        <v>75.862068965517</v>
       </c>
       <c r="AG6" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AH6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="AN6" t="n">
-        <v>21.428571428571</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>14</v>
@@ -2603,16 +2603,16 @@
         <v>27.586206896552</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BB6" t="n">
-        <v>52.380952380952</v>
+        <v>52.60663507109</v>
       </c>
       <c r="BC6" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD6" t="n">
-        <v>51.552795031056</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BE6" t="n">
         <v>27</v>
@@ -2621,13 +2621,13 @@
         <v>55.102040816327</v>
       </c>
       <c r="BG6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BH6" t="n">
         <v>24</v>
       </c>
       <c r="BI6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BJ6" t="n">
         <v>3</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>117.6</v>
+        <v>124.2</v>
       </c>
       <c r="BR6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS6" t="n">
         <v>3</v>
@@ -2738,7 +2738,7 @@
         <v>29</v>
       </c>
       <c r="CT6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CU6" t="n">
         <v>100</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DG6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1069244</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6588235294118</v>
+        <v>6.6944444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2833,22 +2833,22 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.0713</v>
+        <v>2.1336</v>
       </c>
       <c r="L7" t="n">
-        <v>233</v>
+        <v>266.5</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>14.285714285714</v>
+        <v>12.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,46 +2881,46 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2011163</v>
+        <v>0.3453703</v>
       </c>
       <c r="AB7" t="n">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AF7" t="n">
-        <v>82.222222222222</v>
+        <v>81.132075471698</v>
       </c>
       <c r="AG7" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="AH7" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AI7" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>91.666666666667</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>38.461538461538</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB7" t="n">
-        <v>50</v>
+        <v>52.238805970149</v>
       </c>
       <c r="BC7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD7" t="n">
-        <v>48.648648648649</v>
+        <v>52.5</v>
       </c>
       <c r="BE7" t="n">
         <v>14</v>
@@ -2977,13 +2977,13 @@
         <v>51.851851851852</v>
       </c>
       <c r="BG7" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BH7" t="n">
         <v>6</v>
       </c>
       <c r="BI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ7" t="n">
         <v>2</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>113.2</v>
+        <v>120.5</v>
       </c>
       <c r="BR7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB7" t="n">
         <v>5</v>
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CT7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU7" t="n">
         <v>32</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DA7" t="n">
         <v>3</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="DG7" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ7" t="n">
         <v>2293423</v>
@@ -3881,16 +3881,16 @@
         <v>910121</v>
       </c>
       <c r="E10" t="n">
-        <v>6.4727272727273</v>
+        <v>6.4583333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.19064839</v>
+        <v>0.19964284</v>
       </c>
       <c r="AB10" t="n">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3959,22 +3959,22 @@
         <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.059701492537</v>
+        <v>88.27160493827201</v>
       </c>
       <c r="AG10" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>2</v>
@@ -3992,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
         <v>3</v>
       </c>
       <c r="AR10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS10" t="n">
         <v>1</v>
@@ -4025,28 +4025,28 @@
         <v>20</v>
       </c>
       <c r="BA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>32.258064516129</v>
+      </c>
+      <c r="BC10" t="n">
         <v>8</v>
       </c>
-      <c r="BB10" t="n">
-        <v>30.769230769231</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>7</v>
-      </c>
       <c r="BD10" t="n">
-        <v>33.333333333333</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BE10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BG10" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BH10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -4067,73 +4067,73 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
         <v>4</v>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>16</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>3</v>
-      </c>
       <c r="CK10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4160,13 +4160,13 @@
         <v>5</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
         <v>5</v>
       </c>
       <c r="DA10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB10" t="n">
-        <v>83.333333333333</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="DG10" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4237,16 @@
         <v>959806</v>
       </c>
       <c r="E11" t="n">
-        <v>6.58</v>
+        <v>6.7166666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4255,22 +4255,22 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4343</v>
+        <v>0.5821</v>
       </c>
       <c r="L11" t="n">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>16.666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4297,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.17029589</v>
+        <v>0.18683799</v>
       </c>
       <c r="AB11" t="n">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4315,25 +4315,25 @@
         <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AF11" t="n">
-        <v>89.705882352941</v>
+        <v>89.36170212766</v>
       </c>
       <c r="AG11" t="n">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH11" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AI11" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
@@ -4348,19 +4348,19 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>3</v>
@@ -4375,22 +4375,22 @@
         <v>1</v>
       </c>
       <c r="AY11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
-        <v>34.883720930233</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BD11" t="n">
-        <v>35.135135135135</v>
+        <v>39.583333333333</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
@@ -4399,19 +4399,19 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG11" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BH11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>32.9</v>
+        <v>40.3</v>
       </c>
       <c r="BR11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CA11" t="n">
         <v>2</v>
@@ -4465,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="CC11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4486,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -4513,13 +4513,13 @@
         <v>4</v>
       </c>
       <c r="CS11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CT11" t="n">
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CV11" t="n">
         <v>4</v>
@@ -4534,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DA11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DB11" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="DG11" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>976381</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8277777777778</v>
+        <v>6.8210526315789</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>978</v>
+        <v>1066</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4611,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3876</v>
+        <v>2.4053</v>
       </c>
       <c r="L12" t="n">
-        <v>326</v>
+        <v>355.33333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>13</v>
@@ -4626,7 +4626,7 @@
         <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>10.344827586207</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4659,58 +4659,58 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.69950047</v>
+        <v>0.70953137</v>
       </c>
       <c r="AB12" t="n">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AF12" t="n">
-        <v>79.87012987013</v>
+        <v>79.21686746988</v>
       </c>
       <c r="AG12" t="n">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AH12" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AJ12" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -4731,22 +4731,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>35.555555555556</v>
+        <v>35.416666666667</v>
       </c>
       <c r="BA12" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BB12" t="n">
-        <v>48.965517241379</v>
+        <v>49.333333333333</v>
       </c>
       <c r="BC12" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BD12" t="n">
-        <v>50</v>
+        <v>50.375939849624</v>
       </c>
       <c r="BE12" t="n">
         <v>7</v>
@@ -4755,13 +4755,13 @@
         <v>41.176470588235</v>
       </c>
       <c r="BG12" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BH12" t="n">
         <v>14</v>
       </c>
       <c r="BI12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>122.9</v>
+        <v>129.6</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
         <v>4</v>
       </c>
       <c r="BT12" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -4815,16 +4815,16 @@
         <v>18</v>
       </c>
       <c r="CA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CB12" t="n">
         <v>15</v>
       </c>
       <c r="CC12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CD12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4866,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS12" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CT12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CU12" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CV12" t="n">
         <v>10</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB12" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,16 +4908,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="DG12" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ12" t="n">
         <v>2267665</v>
@@ -4949,16 +4949,16 @@
         <v>937324</v>
       </c>
       <c r="E13" t="n">
-        <v>7.2</v>
+        <v>7.1857142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -5015,64 +5015,64 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9576394499999999</v>
+        <v>0.9681448499999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="AC13" t="n">
         <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AF13" t="n">
-        <v>90.90909090909101</v>
+        <v>91.304347826087</v>
       </c>
       <c r="AG13" t="n">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AH13" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>53.333333333333</v>
       </c>
       <c r="AM13" t="n">
         <v>4</v>
       </c>
       <c r="AN13" t="n">
-        <v>44.444444444444</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5090,19 +5090,19 @@
         <v>5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>71.428571428571</v>
+        <v>62.5</v>
       </c>
       <c r="BA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>67.64705882352899</v>
+      </c>
+      <c r="BC13" t="n">
         <v>20</v>
       </c>
-      <c r="BB13" t="n">
-        <v>68.965517241379</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>17</v>
-      </c>
       <c r="BD13" t="n">
-        <v>65.384615384615</v>
+        <v>64.51612903225799</v>
       </c>
       <c r="BE13" t="n">
         <v>3</v>
@@ -5111,13 +5111,13 @@
         <v>100</v>
       </c>
       <c r="BG13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BH13" t="n">
         <v>3</v>
       </c>
       <c r="BI13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>43.2</v>
+        <v>50.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5177,79 +5177,79 @@
         <v>1</v>
       </c>
       <c r="CC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>11</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
         <v>15</v>
       </c>
-      <c r="CD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>9</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>14</v>
-      </c>
       <c r="DA13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DB13" t="n">
         <v>100</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="DG13" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>317301</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8857142857143</v>
+        <v>6.8863636363636</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1616</v>
+        <v>1683</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5679,13 +5679,13 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7689</v>
+        <v>2.814</v>
       </c>
       <c r="L15" t="n">
-        <v>538.66666666667</v>
+        <v>561</v>
       </c>
       <c r="M15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14.285714285714</v>
+        <v>13.636363636364</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -5727,58 +5727,58 @@
         <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.02869216</v>
+        <v>1.21539616</v>
       </c>
       <c r="AB15" t="n">
-        <v>1120</v>
+        <v>1156</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="AF15" t="n">
-        <v>83.759733036707</v>
+        <v>83.965330444204</v>
       </c>
       <c r="AG15" t="n">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="AH15" t="n">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AI15" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AJ15" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>46.987951807229</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
-        <v>26.470588235294</v>
+        <v>30.555555555556</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>6</v>
       </c>
       <c r="AR15" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
         <v>6</v>
@@ -5805,16 +5805,16 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BB15" t="n">
-        <v>52.083333333333</v>
+        <v>53.535353535354</v>
       </c>
       <c r="BC15" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BD15" t="n">
-        <v>49.350649350649</v>
+        <v>51.25</v>
       </c>
       <c r="BE15" t="n">
         <v>12</v>
@@ -5823,13 +5823,13 @@
         <v>63.157894736842</v>
       </c>
       <c r="BG15" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BH15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -5847,28 +5847,28 @@
         <v>6</v>
       </c>
       <c r="BO15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>144.6</v>
+        <v>151.5</v>
       </c>
       <c r="BR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS15" t="n">
         <v>6</v>
       </c>
       <c r="BT15" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW15" t="n">
         <v>2</v>
@@ -5883,13 +5883,13 @@
         <v>6</v>
       </c>
       <c r="CA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CB15" t="n">
         <v>4</v>
       </c>
       <c r="CC15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CD15" t="n">
         <v>29</v>
@@ -5910,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -5934,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS15" t="n">
         <v>14</v>
       </c>
       <c r="CT15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CU15" t="n">
         <v>46</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="DA15" t="n">
         <v>16</v>
       </c>
       <c r="DB15" t="n">
-        <v>66.666666666667</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="DG15" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,124 +6017,124 @@
         <v>944973</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7727272727273</v>
+        <v>6.7833333333333</v>
       </c>
       <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>716</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2769</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.00953518</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>655</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
         <v>11</v>
       </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>626</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.5348191799999999</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>561</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8</v>
-      </c>
       <c r="AE16" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.880466472303</v>
+        <v>87.228915662651</v>
       </c>
       <c r="AG16" t="n">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="AH16" t="n">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="AI16" t="n">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>65.384615384615</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AM16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>22.916666666667</v>
+      </c>
+      <c r="AO16" t="n">
         <v>7</v>
       </c>
-      <c r="AN16" t="n">
-        <v>18.421052631579</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>6</v>
-      </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AS16" t="n">
         <v>6</v>
@@ -6143,10 +6143,10 @@
         <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16" t="n">
         <v>1</v>
@@ -6161,25 +6161,25 @@
         <v>60</v>
       </c>
       <c r="BA16" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BB16" t="n">
-        <v>55</v>
+        <v>54.878048780488</v>
       </c>
       <c r="BC16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD16" t="n">
-        <v>57.746478873239</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BE16" t="n">
         <v>3</v>
       </c>
       <c r="BF16" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="BG16" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="BH16" t="n">
         <v>9</v>
@@ -6188,7 +6188,7 @@
         <v>15</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK16" t="n">
         <v>1</v>
@@ -6203,22 +6203,22 @@
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>74.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="BR16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="BZ16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA16" t="n">
         <v>5</v>
@@ -6245,10 +6245,10 @@
         <v>5</v>
       </c>
       <c r="CC16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CD16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CS16" t="n">
         <v>25</v>
       </c>
       <c r="CT16" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="CU16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CV16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="DA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB16" t="n">
-        <v>90.90909090909101</v>
+        <v>91.666666666667</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="DG16" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>965828</v>
       </c>
       <c r="E18" t="n">
-        <v>7.2391304347826</v>
+        <v>7.2083333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>1978</v>
+        <v>2023</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.40029373</v>
+        <v>0.40271419</v>
       </c>
       <c r="AB18" t="n">
-        <v>1698</v>
+        <v>1739</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6807,28 +6807,28 @@
         <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>1305</v>
+        <v>1339</v>
       </c>
       <c r="AF18" t="n">
-        <v>90.75104311543799</v>
+        <v>90.656736628301</v>
       </c>
       <c r="AG18" t="n">
-        <v>1438</v>
+        <v>1477</v>
       </c>
       <c r="AH18" t="n">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="AI18" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AJ18" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AL18" t="n">
-        <v>67.105263157895</v>
+        <v>67.72151898734199</v>
       </c>
       <c r="AM18" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
@@ -6873,31 +6873,31 @@
         <v>80</v>
       </c>
       <c r="BA18" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BB18" t="n">
-        <v>66.257668711656</v>
+        <v>65.868263473054</v>
       </c>
       <c r="BC18" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BD18" t="n">
-        <v>67.03296703296699</v>
+        <v>67.39130434782599</v>
       </c>
       <c r="BE18" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BF18" t="n">
-        <v>65.277777777778</v>
+        <v>64</v>
       </c>
       <c r="BG18" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BH18" t="n">
         <v>16</v>
       </c>
       <c r="BI18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -6915,22 +6915,22 @@
         <v>6</v>
       </c>
       <c r="BO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>166.5</v>
+        <v>173</v>
       </c>
       <c r="BR18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BU18" t="n">
         <v>1</v>
@@ -6957,10 +6957,10 @@
         <v>6</v>
       </c>
       <c r="CC18" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="CD18" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK18" t="n">
         <v>2</v>
@@ -7011,10 +7011,10 @@
         <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="DA18" t="n">
         <v>27</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>927</v>
+        <v>957</v>
       </c>
       <c r="DG18" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="DH18" t="n">
         <v>3</v>
@@ -7795,16 +7795,16 @@
         <v>267619</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6681818181818</v>
+        <v>6.6434782608696</v>
       </c>
       <c r="F21" t="n">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n">
         <v>22</v>
       </c>
-      <c r="G21" t="n">
-        <v>21</v>
-      </c>
       <c r="H21" t="n">
-        <v>1850</v>
+        <v>1940</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7813,19 +7813,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5998</v>
+        <v>0.6626</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
         <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.67289652</v>
+        <v>0.68463702</v>
       </c>
       <c r="AB21" t="n">
-        <v>1356</v>
+        <v>1416</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -7873,40 +7873,40 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="AF21" t="n">
-        <v>85.963114754098</v>
+        <v>85.798237022527</v>
       </c>
       <c r="AG21" t="n">
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c r="AH21" t="n">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AI21" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="AJ21" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>53.061224489796</v>
+        <v>50.943396226415</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>27.777777777778</v>
+        <v>23.809523809524</v>
       </c>
       <c r="AO21" t="n">
         <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -7918,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="AT21" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AU21" t="n">
         <v>3</v>
@@ -7939,28 +7939,28 @@
         <v>38.461538461538</v>
       </c>
       <c r="BA21" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BB21" t="n">
-        <v>52.380952380952</v>
+        <v>52.307692307692</v>
       </c>
       <c r="BC21" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BD21" t="n">
-        <v>56.410256410256</v>
+        <v>56.962025316456</v>
       </c>
       <c r="BE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF21" t="n">
-        <v>45.833333333333</v>
+        <v>45.098039215686</v>
       </c>
       <c r="BG21" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="BH21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI21" t="n">
         <v>11</v>
@@ -7981,28 +7981,28 @@
         <v>8</v>
       </c>
       <c r="BO21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>146.7</v>
+        <v>152.8</v>
       </c>
       <c r="BR21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="BU21" t="n">
         <v>1</v>
       </c>
       <c r="BV21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="BZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA21" t="n">
         <v>5</v>
@@ -8023,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="CC21" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CD21" t="n">
         <v>11</v>
@@ -8044,10 +8044,10 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>13</v>
       </c>
       <c r="CT21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CU21" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CV21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="DA21" t="n">
         <v>13</v>
       </c>
       <c r="DB21" t="n">
-        <v>44.827586206897</v>
+        <v>43.333333333333</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="DG21" t="n">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8507,16 +8507,16 @@
         <v>1160559</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9083333333333</v>
+        <v>6.8923076923077</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.04130211</v>
+        <v>0.04763005</v>
       </c>
       <c r="AB23" t="n">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
@@ -8583,28 +8583,28 @@
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="AF23" t="n">
-        <v>92.5</v>
+        <v>92.55319148936201</v>
       </c>
       <c r="AG23" t="n">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="AH23" t="n">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="AI23" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>64.28571428571399</v>
+        <v>60.606060606061</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8613,28 +8613,28 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -8649,28 +8649,28 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>59.52380952381</v>
+        <v>55.31914893617</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
-        <v>50</v>
+        <v>43.75</v>
       </c>
       <c r="BE23" t="n">
         <v>19</v>
       </c>
       <c r="BF23" t="n">
-        <v>63.333333333333</v>
+        <v>61.290322580645</v>
       </c>
       <c r="BG23" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BH23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI23" t="n">
         <v>3</v>
@@ -8691,22 +8691,22 @@
         <v>1</v>
       </c>
       <c r="BO23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>82.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="BR23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8730,10 +8730,10 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CC23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD23" t="n">
         <v>3</v>
@@ -8754,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>1</v>
       </c>
       <c r="CU23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8802,13 +8802,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="DA23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DB23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8820,16 +8820,16 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="DG23" t="n">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="DH23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="DI23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DJ23" t="n">
         <v>2170141</v>
@@ -8861,16 +8861,16 @@
         <v>217784</v>
       </c>
       <c r="E24" t="n">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8878,12 +8878,14 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0.0916</v>
+      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -8925,40 +8927,40 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01450501</v>
+        <v>0.02234171</v>
       </c>
       <c r="AB24" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
+        <v>113</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>89.68253968254</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH24" t="n">
         <v>77</v>
       </c>
-      <c r="AF24" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>88</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>51</v>
-      </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>66.666666666667</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8967,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24" t="n">
         <v>1</v>
@@ -8976,16 +8978,16 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -9003,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB24" t="n">
-        <v>45.454545454545</v>
+        <v>50</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -9015,13 +9017,13 @@
         <v>25</v>
       </c>
       <c r="BE24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF24" t="n">
-        <v>57.142857142857</v>
+        <v>62.5</v>
       </c>
       <c r="BG24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BH24" t="n">
         <v>2</v>
@@ -9045,22 +9047,22 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>33.2</v>
+        <v>39.9</v>
       </c>
       <c r="BR24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9081,13 +9083,13 @@
         <v>0</v>
       </c>
       <c r="CA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB24" t="n">
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD24" t="n">
         <v>4</v>
@@ -9111,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="CK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
@@ -9132,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS24" t="n">
         <v>0</v>
@@ -9156,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9174,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="DG24" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="DH24" t="n">
         <v>1</v>
@@ -9215,16 +9217,16 @@
         <v>308182</v>
       </c>
       <c r="E25" t="n">
-        <v>7.2666666666667</v>
+        <v>7.236</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9279,10 +9281,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03133406</v>
+        <v>0.03425191</v>
       </c>
       <c r="AB25" t="n">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
@@ -9291,49 +9293,49 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="AF25" t="n">
-        <v>74.168797953964</v>
+        <v>74.660074165637</v>
       </c>
       <c r="AG25" t="n">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="AH25" t="n">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="AI25" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
+        <v>166</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>45.231607629428</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
         <v>158</v>
       </c>
-      <c r="AL25" t="n">
-        <v>44.38202247191</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>151</v>
-      </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
@@ -9360,13 +9362,13 @@
         <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>91.666666666667</v>
+        <v>84.615384615385</v>
       </c>
       <c r="BC25" t="n">
         <v>2</v>
       </c>
       <c r="BD25" t="n">
-        <v>100</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE25" t="n">
         <v>9</v>
@@ -9375,7 +9377,7 @@
         <v>90</v>
       </c>
       <c r="BG25" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
@@ -9393,28 +9395,28 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BN25" t="n">
         <v>11</v>
       </c>
       <c r="BO25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP25" t="n">
         <v>1</v>
       </c>
       <c r="BQ25" t="n">
-        <v>174.4</v>
+        <v>180.9</v>
       </c>
       <c r="BR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9453,19 +9455,19 @@
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH25" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CI25" t="n">
         <v>30</v>
       </c>
       <c r="CJ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL25" t="n">
         <v>11</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="CU25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV25" t="n">
         <v>1</v>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="DA25" t="n">
         <v>0</v>
@@ -9528,13 +9530,13 @@
         <v>26</v>
       </c>
       <c r="DF25" t="n">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="DG25" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="DH25" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
@@ -9548,7 +9550,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>6.7826</v>
+        <v>6.3804</v>
       </c>
     </row>
   </sheetData>
